--- a/Program Manager Capstone/Program Benefits Register Solution.xlsx
+++ b/Program Manager Capstone/Program Benefits Register Solution.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedea\AppData\Local\Box\Box Edit\Documents\Zd0gcQ1Lo0CDJCkKNybZZA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F12296-5EF4-42E9-9187-7AA3DC3A3833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61859360-6E28-430B-A540-B78B5C12ABEB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$3:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$O$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -299,11 +299,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,13 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,16 +424,10 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,22 +436,28 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,498 +799,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A43CF-B61F-4F2C-A90A-DB7EC449FCDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" customWidth="1"/>
-    <col min="13" max="15" width="24.6640625" customWidth="1"/>
+    <col min="1" max="6" width="24.69921875" customWidth="1"/>
+    <col min="7" max="9" width="30.69921875" customWidth="1"/>
+    <col min="10" max="11" width="24.69921875" customWidth="1"/>
+    <col min="12" max="12" width="35.69921875" customWidth="1"/>
+    <col min="13" max="15" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="57.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="17.399999999999999">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" ht="45" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" ht="45" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:15" ht="45" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0.15</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0.12</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:15" ht="45" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:15" ht="45" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>500000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>375000</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:15" ht="45" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0.85</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" ht="45" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:15" ht="45" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:15" ht="45" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0.6</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>0.85</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:O3" xr:uid="{256A43CF-B61F-4F2C-A90A-DB7EC449FCDD}"/>
+  <autoFilter ref="A3:O3"/>
   <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G2:I2"/>
@@ -1292,7 +1299,7 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="30" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>